--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Osm-Lifr.xlsx
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H2">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I2">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J2">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N2">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O2">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P2">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q2">
-        <v>0.1100197671566667</v>
+        <v>11.64319837934556</v>
       </c>
       <c r="R2">
-        <v>0.99017790441</v>
+        <v>104.78878541411</v>
       </c>
       <c r="S2">
-        <v>9.802887965266477E-06</v>
+        <v>0.001430212167841887</v>
       </c>
       <c r="T2">
-        <v>9.802887965266478E-06</v>
+        <v>0.001430212167841887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H3">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I3">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J3">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P3">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q3">
-        <v>0.06317363157133332</v>
+        <v>8.516446520913334</v>
       </c>
       <c r="R3">
-        <v>0.568562684142</v>
+        <v>76.64801868821999</v>
       </c>
       <c r="S3">
-        <v>5.628843331134756E-06</v>
+        <v>0.001046132260581614</v>
       </c>
       <c r="T3">
-        <v>5.628843331134756E-06</v>
+        <v>0.001046132260581614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H4">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I4">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J4">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N4">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P4">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q4">
-        <v>0.04128275892822222</v>
+        <v>8.312627789231112</v>
       </c>
       <c r="R4">
-        <v>0.371544830354</v>
+        <v>74.81365010307999</v>
       </c>
       <c r="S4">
-        <v>3.678341366549098E-06</v>
+        <v>0.001021095838407178</v>
       </c>
       <c r="T4">
-        <v>3.678341366549098E-06</v>
+        <v>0.001021095838407178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H5">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I5">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J5">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N5">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P5">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q5">
-        <v>0.06502467202377776</v>
+        <v>2.172103152201112</v>
       </c>
       <c r="R5">
-        <v>0.5852220482139999</v>
+        <v>19.54892836981</v>
       </c>
       <c r="S5">
-        <v>5.79377316732183E-06</v>
+        <v>0.000266814002207215</v>
       </c>
       <c r="T5">
-        <v>5.79377316732183E-06</v>
+        <v>0.0002668140022072151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H6">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I6">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J6">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N6">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P6">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q6">
-        <v>0.02271417764644445</v>
+        <v>2.324783815417778</v>
       </c>
       <c r="R6">
-        <v>0.204427598818</v>
+        <v>20.92305433876</v>
       </c>
       <c r="S6">
-        <v>2.023859388596813E-06</v>
+        <v>0.0002855687923612689</v>
       </c>
       <c r="T6">
-        <v>2.023859388596813E-06</v>
+        <v>0.0002855687923612689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.004257666666666667</v>
+        <v>0.5739766666666667</v>
       </c>
       <c r="H7">
-        <v>0.012773</v>
+        <v>1.72193</v>
       </c>
       <c r="I7">
-        <v>3.799983494035526E-05</v>
+        <v>0.004523999569041311</v>
       </c>
       <c r="J7">
-        <v>3.799983494035526E-05</v>
+        <v>0.00452399956904131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N7">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P7">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q7">
-        <v>0.1242647205805556</v>
+        <v>3.860218273512222</v>
       </c>
       <c r="R7">
-        <v>1.118382485225</v>
+        <v>34.74196446161</v>
       </c>
       <c r="S7">
-        <v>1.107212972148629E-05</v>
+        <v>0.000474176507642147</v>
       </c>
       <c r="T7">
-        <v>1.107212972148629E-05</v>
+        <v>0.000474176507642147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H8">
         <v>1.503156</v>
       </c>
       <c r="I8">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J8">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N8">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O8">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P8">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q8">
-        <v>12.94737909028</v>
+        <v>10.16391113640133</v>
       </c>
       <c r="R8">
-        <v>116.52641181252</v>
+        <v>91.47520022761201</v>
       </c>
       <c r="S8">
-        <v>0.001153626388657175</v>
+        <v>0.00124850139167361</v>
       </c>
       <c r="T8">
-        <v>0.001153626388657175</v>
+        <v>0.00124850139167361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H9">
         <v>1.503156</v>
       </c>
       <c r="I9">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J9">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P9">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q9">
-        <v>7.434418174135999</v>
+        <v>7.434418174136001</v>
       </c>
       <c r="R9">
-        <v>66.90976356722399</v>
+        <v>66.909763567224</v>
       </c>
       <c r="S9">
-        <v>0.0006624152216593748</v>
+        <v>0.0009132194597264797</v>
       </c>
       <c r="T9">
-        <v>0.000662415221659375</v>
+        <v>0.0009132194597264799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H10">
         <v>1.503156</v>
       </c>
       <c r="I10">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J10">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N10">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P10">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q10">
-        <v>4.858249963165333</v>
+        <v>7.256494942970667</v>
       </c>
       <c r="R10">
-        <v>43.724249668488</v>
+        <v>65.30845448673601</v>
       </c>
       <c r="S10">
-        <v>0.000432875667045837</v>
+        <v>0.0008913639556060812</v>
       </c>
       <c r="T10">
-        <v>0.0004328756670458371</v>
+        <v>0.0008913639556060813</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H11">
         <v>1.503156</v>
       </c>
       <c r="I11">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J11">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N11">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P11">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q11">
-        <v>7.652252869378664</v>
+        <v>1.896133922894667</v>
       </c>
       <c r="R11">
-        <v>68.87027582440798</v>
+        <v>17.065205306052</v>
       </c>
       <c r="S11">
-        <v>0.0006818245438893613</v>
+        <v>0.0002329148503724243</v>
       </c>
       <c r="T11">
-        <v>0.0006818245438893614</v>
+        <v>0.0002329148503724243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H12">
         <v>1.503156</v>
       </c>
       <c r="I12">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J12">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N12">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P12">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q12">
-        <v>2.673056636210667</v>
+        <v>2.029416260154667</v>
       </c>
       <c r="R12">
-        <v>24.057509725896</v>
+        <v>18.26474634139201</v>
       </c>
       <c r="S12">
-        <v>0.0002381724248904432</v>
+        <v>0.0002492868140113684</v>
       </c>
       <c r="T12">
-        <v>0.0002381724248904432</v>
+        <v>0.0002492868140113684</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.5010519999999999</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H13">
         <v>1.503156</v>
       </c>
       <c r="I13">
-        <v>0.004471907922148645</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="J13">
-        <v>0.004471907922148646</v>
+        <v>0.003949218084476059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N13">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P13">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q13">
-        <v>14.62375795263333</v>
+        <v>3.369771279401333</v>
       </c>
       <c r="R13">
-        <v>131.6138215737</v>
+        <v>30.327941514612</v>
       </c>
       <c r="S13">
-        <v>0.001302993676006454</v>
+        <v>0.0004139316130860948</v>
       </c>
       <c r="T13">
-        <v>0.001302993676006454</v>
+        <v>0.0004139316130860948</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H14">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I14">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J14">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N14">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O14">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P14">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q14">
-        <v>886.9486127529466</v>
+        <v>1000.798540044484</v>
       </c>
       <c r="R14">
-        <v>7982.537514776519</v>
+        <v>9007.186860400358</v>
       </c>
       <c r="S14">
-        <v>0.07902814290985165</v>
+        <v>0.1229347987464653</v>
       </c>
       <c r="T14">
-        <v>0.07902814290985168</v>
+        <v>0.1229347987464653</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H15">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I15">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J15">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P15">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q15">
-        <v>509.2881609626693</v>
+        <v>732.0365905314127</v>
       </c>
       <c r="R15">
-        <v>4583.593448664024</v>
+        <v>6588.329314782713</v>
       </c>
       <c r="S15">
-        <v>0.04537816169747388</v>
+        <v>0.08992096544028512</v>
       </c>
       <c r="T15">
-        <v>0.04537816169747389</v>
+        <v>0.08992096544028513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H16">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I16">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J16">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N16">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P16">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q16">
-        <v>332.8100641211209</v>
+        <v>714.5172215010662</v>
       </c>
       <c r="R16">
-        <v>2995.290577090088</v>
+        <v>6430.654993509595</v>
       </c>
       <c r="S16">
-        <v>0.02965376001611369</v>
+        <v>0.08776894380982295</v>
       </c>
       <c r="T16">
-        <v>0.02965376001611369</v>
+        <v>0.08776894380982295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H17">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I17">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J17">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N17">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P17">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q17">
-        <v>524.2107317322229</v>
+        <v>186.7045113141052</v>
       </c>
       <c r="R17">
-        <v>4717.896585590007</v>
+        <v>1680.340601826947</v>
       </c>
       <c r="S17">
-        <v>0.04670777993961567</v>
+        <v>0.02293416767218353</v>
       </c>
       <c r="T17">
-        <v>0.04670777993961568</v>
+        <v>0.02293416767218354</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H18">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I18">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J18">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N18">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P18">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q18">
-        <v>183.1153516681218</v>
+        <v>199.8282750654236</v>
       </c>
       <c r="R18">
-        <v>1648.038165013096</v>
+        <v>1798.454475588812</v>
       </c>
       <c r="S18">
-        <v>0.01631578873064537</v>
+        <v>0.02454624761735688</v>
       </c>
       <c r="T18">
-        <v>0.01631578873064537</v>
+        <v>0.02454624761735688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.32411866666666</v>
+        <v>49.33653033333334</v>
       </c>
       <c r="H19">
-        <v>102.972356</v>
+        <v>148.009591</v>
       </c>
       <c r="I19">
-        <v>0.3063440484944414</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="J19">
-        <v>0.3063440484944415</v>
+        <v>0.3888632673209599</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N19">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P19">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q19">
-        <v>1001.787445851522</v>
+        <v>331.8075228570675</v>
       </c>
       <c r="R19">
-        <v>9016.087012663698</v>
+        <v>2986.267705713607</v>
       </c>
       <c r="S19">
-        <v>0.08926041520074113</v>
+        <v>0.0407581440348461</v>
       </c>
       <c r="T19">
-        <v>0.08926041520074114</v>
+        <v>0.04075814403484611</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H20">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I20">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J20">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N20">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O20">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P20">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q20">
-        <v>1111.47155809284</v>
+        <v>1159.075668844829</v>
       </c>
       <c r="R20">
-        <v>10003.24402283556</v>
+        <v>10431.68101960346</v>
       </c>
       <c r="S20">
-        <v>0.09903339592647063</v>
+        <v>0.1423770403132585</v>
       </c>
       <c r="T20">
-        <v>0.09903339592647067</v>
+        <v>0.1423770403132585</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H21">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I21">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J21">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P21">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q21">
-        <v>638.209810178808</v>
+        <v>847.8087915189918</v>
       </c>
       <c r="R21">
-        <v>5743.888291609272</v>
+        <v>7630.279123670927</v>
       </c>
       <c r="S21">
-        <v>0.05686522912385329</v>
+        <v>0.104142041570363</v>
       </c>
       <c r="T21">
-        <v>0.0568652291238533</v>
+        <v>0.104142041570363</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H22">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I22">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J22">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N22">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P22">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q22">
-        <v>417.0578939962961</v>
+        <v>827.5187195773545</v>
       </c>
       <c r="R22">
-        <v>3753.521045966665</v>
+        <v>7447.668476196191</v>
       </c>
       <c r="S22">
-        <v>0.03716033868762771</v>
+        <v>0.101649675913449</v>
       </c>
       <c r="T22">
-        <v>0.03716033868762771</v>
+        <v>0.101649675913449</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H23">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I23">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J23">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N23">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P23">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q23">
-        <v>656.9098935269359</v>
+        <v>216.2319864276827</v>
       </c>
       <c r="R23">
-        <v>5912.189041742424</v>
+        <v>1946.087877849144</v>
       </c>
       <c r="S23">
-        <v>0.05853142808737052</v>
+        <v>0.02656122553181786</v>
       </c>
       <c r="T23">
-        <v>0.05853142808737052</v>
+        <v>0.02656122553181786</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H24">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I24">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J24">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N24">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P24">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q24">
-        <v>229.469331484232</v>
+        <v>231.4312844274027</v>
       </c>
       <c r="R24">
-        <v>2065.223983358088</v>
+        <v>2082.881559846624</v>
       </c>
       <c r="S24">
-        <v>0.02044598171891528</v>
+        <v>0.02842825727289142</v>
       </c>
       <c r="T24">
-        <v>0.02044598171891528</v>
+        <v>0.02842825727289143</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.012956</v>
+        <v>57.13914399999999</v>
       </c>
       <c r="H25">
-        <v>129.038868</v>
+        <v>171.417432</v>
       </c>
       <c r="I25">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="J25">
-        <v>0.3838922480928749</v>
+        <v>0.4503623193127293</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N25">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P25">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q25">
-        <v>1255.3807935529</v>
+        <v>384.2831609908293</v>
       </c>
       <c r="R25">
-        <v>11298.4271419761</v>
+        <v>3458.548448917464</v>
       </c>
       <c r="S25">
-        <v>0.1118558745486374</v>
+        <v>0.04720407871094946</v>
       </c>
       <c r="T25">
-        <v>0.1118558745486374</v>
+        <v>0.04720407871094946</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H26">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I26">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J26">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.84039</v>
+        <v>20.28514233333333</v>
       </c>
       <c r="N26">
-        <v>77.52117</v>
+        <v>60.855427</v>
       </c>
       <c r="O26">
-        <v>0.2579718564739331</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="P26">
-        <v>0.2579718564739332</v>
+        <v>0.3161388824236706</v>
       </c>
       <c r="Q26">
-        <v>883.7920368451801</v>
+        <v>391.9702042481326</v>
       </c>
       <c r="R26">
-        <v>7954.128331606621</v>
+        <v>3527.731838233193</v>
       </c>
       <c r="S26">
-        <v>0.07874688836098834</v>
+        <v>0.04814832980443121</v>
       </c>
       <c r="T26">
-        <v>0.07874688836098838</v>
+        <v>0.04814832980443123</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H27">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I27">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J27">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>44.512854</v>
       </c>
       <c r="O27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="P27">
-        <v>0.1481280995027957</v>
+        <v>0.2312405747649756</v>
       </c>
       <c r="Q27">
-        <v>507.475647006516</v>
+        <v>286.7075844204873</v>
       </c>
       <c r="R27">
-        <v>4567.280823058644</v>
+        <v>2580.368259784386</v>
       </c>
       <c r="S27">
-        <v>0.04521666461647796</v>
+        <v>0.03521821603401937</v>
       </c>
       <c r="T27">
-        <v>0.04521666461647798</v>
+        <v>0.03521821603401937</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H28">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I28">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J28">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.696099333333335</v>
+        <v>14.48251866666667</v>
       </c>
       <c r="N28">
-        <v>29.088298</v>
+        <v>43.447556</v>
       </c>
       <c r="O28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="P28">
-        <v>0.09679887747730068</v>
+        <v>0.2257064402469782</v>
       </c>
       <c r="Q28">
-        <v>331.6256209468921</v>
+        <v>279.8459930188671</v>
       </c>
       <c r="R28">
-        <v>2984.630588522029</v>
+        <v>2518.613937169804</v>
       </c>
       <c r="S28">
-        <v>0.02954822476514687</v>
+        <v>0.03437536072969292</v>
       </c>
       <c r="T28">
-        <v>0.02954822476514688</v>
+        <v>0.03437536072969292</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H29">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I29">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J29">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.27237266666666</v>
+        <v>3.784305666666667</v>
       </c>
       <c r="N29">
-        <v>45.81711799999999</v>
+        <v>11.352917</v>
       </c>
       <c r="O29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701675</v>
       </c>
       <c r="P29">
-        <v>0.1524683772025791</v>
+        <v>0.05897745968701677</v>
       </c>
       <c r="Q29">
-        <v>522.3451095951719</v>
+        <v>73.12421282167811</v>
       </c>
       <c r="R29">
-        <v>4701.105986356548</v>
+        <v>658.1179153951031</v>
       </c>
       <c r="S29">
-        <v>0.04654155085853618</v>
+        <v>0.008982337630435719</v>
       </c>
       <c r="T29">
-        <v>0.04654155085853619</v>
+        <v>0.008982337630435721</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H30">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I30">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J30">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.334888666666667</v>
+        <v>4.050310666666667</v>
       </c>
       <c r="N30">
-        <v>16.004666</v>
+        <v>12.150932</v>
       </c>
       <c r="O30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772531</v>
       </c>
       <c r="P30">
-        <v>0.05325968893742494</v>
+        <v>0.06312308124772532</v>
       </c>
       <c r="Q30">
-        <v>182.463659451564</v>
+        <v>78.2642326681098</v>
       </c>
       <c r="R30">
-        <v>1642.172935064076</v>
+        <v>704.3780940129881</v>
       </c>
       <c r="S30">
-        <v>0.01625772220358524</v>
+        <v>0.009613720751104369</v>
       </c>
       <c r="T30">
-        <v>0.01625772220358524</v>
+        <v>0.009613720751104371</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>34.201962</v>
+        <v>19.32301966666667</v>
       </c>
       <c r="H31">
-        <v>102.605886</v>
+        <v>57.969059</v>
       </c>
       <c r="I31">
-        <v>0.3052537956555945</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="J31">
-        <v>0.3052537956555946</v>
+        <v>0.1523011957127934</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.18610833333333</v>
+        <v>6.725392333333333</v>
       </c>
       <c r="N31">
-        <v>87.558325</v>
+        <v>20.176177</v>
       </c>
       <c r="O31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="P31">
-        <v>0.2913731004059664</v>
+        <v>0.1048135616296336</v>
       </c>
       <c r="Q31">
-        <v>998.2221681445501</v>
+        <v>129.9548883230492</v>
       </c>
       <c r="R31">
-        <v>8983.999513300951</v>
+        <v>1169.593994907443</v>
       </c>
       <c r="S31">
-        <v>0.0889427448508599</v>
+        <v>0.01596323076310975</v>
       </c>
       <c r="T31">
-        <v>0.08894274485085993</v>
+        <v>0.01596323076310975</v>
       </c>
     </row>
   </sheetData>
